--- a/folder_with_orders/orders_boxberry.xlsx
+++ b/folder_with_orders/orders_boxberry.xlsx
@@ -492,7 +492,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="N3" activeCellId="0" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -628,7 +628,7 @@
     <row r="2" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="n">
         <f aca="false">RANDBETWEEN(1000000,9999999)</f>
-        <v>4068415</v>
+        <v>1449707</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4" t="s">
@@ -716,7 +716,7 @@
     <row r="3" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="n">
         <f aca="false">RANDBETWEEN(1000000,9999999)</f>
-        <v>8906978</v>
+        <v>8537022</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
@@ -753,7 +753,7 @@
         <v>50</v>
       </c>
       <c r="N3" s="6" t="n">
-        <v>99451</v>
+        <v>77717</v>
       </c>
       <c r="O3" s="7"/>
       <c r="P3" s="4"/>
